--- a/UserID.xlsx
+++ b/UserID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Power BI New\Warranty Debit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008461D-CDA0-4D7B-A446-D4924DD84B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D2342-927A-40D5-87AB-92F9AE1FA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>S No</t>
   </si>
@@ -28,140 +28,71 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>CRE Name</t>
-  </si>
-  <si>
-    <t>CRE Name Input Data</t>
-  </si>
-  <si>
-    <t>Usse ID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>PALLAVI CHANDRASHEKHAR BHONGADE</t>
-  </si>
-  <si>
-    <t>PAYAL RAJESH YADAV</t>
-  </si>
-  <si>
-    <t>POOJA RAJENDRA LOKHANDE</t>
-  </si>
-  <si>
-    <t>PUJA NANDU BANRAKHE</t>
-  </si>
-  <si>
-    <t>SAKSHI SURESH WAGHADE</t>
-  </si>
-  <si>
-    <t>SEJAL AVINASH WAJE</t>
-  </si>
-  <si>
-    <t>SONALI BANDU POKALE</t>
-  </si>
-  <si>
-    <t>SONU RAHUL BANOKAR</t>
-  </si>
-  <si>
-    <t>VANDANABAI PRAFUL SONKUSARE</t>
-  </si>
-  <si>
-    <t>Kalyani</t>
-  </si>
-  <si>
-    <t>Payal</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>Puja</t>
-  </si>
-  <si>
-    <t>Sakshi</t>
-  </si>
-  <si>
-    <t>Sejal</t>
-  </si>
-  <si>
-    <t>Sonali</t>
-  </si>
-  <si>
-    <t>Sonu</t>
-  </si>
-  <si>
-    <t>PALLAVI@11724</t>
-  </si>
-  <si>
-    <t>PAYAL@7658</t>
-  </si>
-  <si>
-    <t>POOJA@11276</t>
-  </si>
-  <si>
-    <t>PUJA@7609</t>
-  </si>
-  <si>
-    <t>SAKSHI@7755</t>
-  </si>
-  <si>
-    <t>SEJAL@7617</t>
-  </si>
-  <si>
-    <t>SONALI@11099</t>
-  </si>
-  <si>
-    <t>SONU@11433</t>
-  </si>
-  <si>
-    <t>VANDANA@7472</t>
-  </si>
-  <si>
     <t>un001@123</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID Responsibility</t>
+  </si>
+  <si>
+    <t>SUDHIR  PAKHALE</t>
+  </si>
+  <si>
+    <t>Wagholi</t>
+  </si>
+  <si>
+    <t>NAGESH  SUTAR</t>
+  </si>
+  <si>
+    <t>ANKESH  KUSAME</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>2nd Responsibility</t>
+  </si>
+  <si>
+    <t>3rd Responsibility</t>
+  </si>
+  <si>
+    <t>4th Responsibility</t>
+  </si>
+  <si>
+    <t>Shikrapur</t>
+  </si>
+  <si>
+    <t>Chaufula</t>
+  </si>
+  <si>
+    <t>Ramesh Naidu</t>
+  </si>
+  <si>
     <t>HO</t>
   </si>
   <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>Amravati</t>
+  </si>
+  <si>
     <t>Yavatmal</t>
-  </si>
-  <si>
-    <t>Chikhali / City</t>
-  </si>
-  <si>
-    <t>Amravati</t>
-  </si>
-  <si>
-    <t>All Division</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>High End / Personal</t>
-  </si>
-  <si>
-    <t>Commercial / LMM</t>
-  </si>
-  <si>
-    <t>High End</t>
-  </si>
-  <si>
-    <t>High End / Personal / Commercial / LMM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,11 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -526,19 +467,18 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -552,308 +492,305 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6496</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15284</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7697</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>3609</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11724</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7658</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>11276</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>7609</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7755</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7617</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>11099</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>11433</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>7472</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>